--- a/Final_PHD/PHD_TrainData_and_ProblemStatement/PHD_Batch56_ProblemStatement.xlsx
+++ b/Final_PHD/PHD_TrainData_and_ProblemStatement/PHD_Batch56_ProblemStatement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samyam/Documents/Samya/GIT/insofe/Final_PHD/PHD_TrainData_and_ProblemStatement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seemabasantani/Documents/Academics/Batch 56/PHD/Data/20190518_PHD_Batch56_Classif_LC_Cluster_Shared/PHD_TrainData_and_ProblemStatement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD96333-8A65-E348-A52D-9F9697DA91D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A545732B-A502-8D43-9470-7D5019422417}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30060" windowHeight="19920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem Statement" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,8 @@
     <sheet name="General Instructions" sheetId="5" r:id="rId5"/>
     <sheet name="Evaluation Metric" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -1649,6 +1643,48 @@
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1778,6 +1814,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1801,51 +1840,6 @@
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2231,496 +2225,496 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="163" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="163" style="16" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" style="15" customWidth="1"/>
+    <col min="4" max="1025" width="14.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="35.5" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
     </row>
     <row r="2" spans="1:26" ht="60" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
     </row>
     <row r="3" spans="1:26" ht="409" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="68">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="311" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" ht="204">
-      <c r="A6" s="10" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+    </row>
+    <row r="6" spans="1:26" ht="149.25" customHeight="1">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="18">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
+      <c r="A9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
     </row>
     <row r="10" spans="1:26" ht="17">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="40">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-    </row>
-    <row r="12" spans="1:26" s="18" customFormat="1" ht="40">
-      <c r="A12" s="15" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+    </row>
+    <row r="12" spans="1:26" s="32" customFormat="1" ht="40">
+      <c r="A12" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
     </row>
     <row r="13" spans="1:26" ht="40">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
     </row>
     <row r="14" spans="1:26" ht="40">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" ht="86">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2739,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -2759,154 +2753,154 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" customHeight="1"/>
     <row r="2" spans="1:12" ht="27.25" customHeight="1">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="22" customHeight="1"/>
     <row r="4" spans="1:12" ht="26" customHeight="1">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="67" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="68" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="68"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="69" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="69" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="69"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="56" customHeight="1">
-      <c r="A6" s="27"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="40"/>
+      <c r="F6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="56" customHeight="1">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" ht="199.5" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="62" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="33" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="63" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="63"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="221.75" customHeight="1">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="36" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="64" t="s">
+      <c r="J9" s="46"/>
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="64"/>
+      <c r="L9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2931,7 +2925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1048574"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -2943,84 +2937,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="52"/>
+      <c r="B1" s="53" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="76">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19">
-      <c r="A3" s="40"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="152">
-      <c r="A4" s="42">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38">
-      <c r="A5" s="42">
+      <c r="A5" s="56">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="57">
-      <c r="A6" s="42">
+    <row r="6" spans="1:2" ht="76">
+      <c r="A6" s="56">
         <v>3</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38">
-      <c r="A7" s="42">
+      <c r="A7" s="56">
         <v>4</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="44" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="38">
-      <c r="A8" s="42">
+      <c r="A8" s="56">
         <v>5</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57">
-      <c r="A9" s="42">
+      <c r="A9" s="56">
         <v>6</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="171">
-      <c r="A10" s="42">
+      <c r="A10" s="56">
         <v>7</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="44" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="57">
-      <c r="A11" s="42">
+      <c r="A11" s="56">
         <v>8</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="44" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3035,7 +3029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="63" zoomScaleNormal="63" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
@@ -3045,126 +3039,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="30"/>
+      <c r="A1" s="44"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="18">
-      <c r="A4" s="45"/>
-      <c r="B4" s="70"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2" ht="19">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="38">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="18">
-      <c r="A7" s="45"/>
-      <c r="B7" s="70"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" ht="19">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" ht="114">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" ht="18">
-      <c r="A10" s="45"/>
+      <c r="A10" s="59"/>
     </row>
     <row r="11" spans="1:2" ht="19">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="61"/>
     </row>
     <row r="12" spans="1:2" ht="57">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="61"/>
     </row>
     <row r="13" spans="1:2" ht="19">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="133">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="71"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" ht="18">
-      <c r="A15" s="45"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" ht="19">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="76">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" ht="19">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="71"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" ht="76">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="71"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2" ht="18">
-      <c r="A20" s="45"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" ht="19">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="71"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" ht="19">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="71"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="1048576" ht="15.75" customHeight="1"/>
   </sheetData>
@@ -3181,7 +3175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="63" zoomScaleNormal="63" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
@@ -3191,79 +3185,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="48"/>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="62"/>
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="49">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="49">
+      <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="49">
+      <c r="A4" s="63">
         <v>3</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="49">
+      <c r="A5" s="63">
         <v>4</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="49">
+      <c r="A6" s="63">
         <v>5</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="49">
+      <c r="A7" s="63">
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3284,9 +3278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView topLeftCell="A9" zoomScale="63" zoomScaleNormal="63" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
@@ -3297,171 +3289,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14">
-      <c r="A1" s="27"/>
-      <c r="B1" s="27"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="51">
+      <c r="B2" s="65">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="65">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="65"/>
     </row>
     <row r="5" spans="1:3" ht="19">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="38">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="65"/>
     </row>
     <row r="9" spans="1:3" ht="38">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="74" t="s">
+      <c r="B13" s="65"/>
+      <c r="C13" s="66" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="56">
         <v>5</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="66"/>
     </row>
     <row r="15" spans="1:3" ht="19">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="56">
         <v>5</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="66"/>
     </row>
     <row r="16" spans="1:3" ht="19">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="65"/>
     </row>
     <row r="17" spans="1:2" ht="18">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="42">
+      <c r="B18" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="56">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="62">
         <f>SUM(B2:B21)</f>
         <v>100</v>
       </c>
